--- a/75ALS16x Logic Table.xlsx
+++ b/75ALS16x Logic Table.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzrielLeers\GitHub\75ALS16xLogic\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1179DD-0437-4867-A212-6E4DCC375188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E74B61F-C61E-4B4A-ADB8-9F4A385B61A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{B00E8D16-4F0A-47FD-8F8A-0E31DD8D8A4E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{B00E8D16-4F0A-47FD-8F8A-0E31DD8D8A4E}"/>
   </bookViews>
   <sheets>
     <sheet name="75ALS160-20" sheetId="2" r:id="rId1"/>
@@ -377,6 +372,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -387,9 +385,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -708,7 +703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2388DCC6-379A-4513-9A27-91599C1AD9F0}">
   <dimension ref="B1:AA24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -723,30 +718,30 @@
       </c>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
       <c r="X2" s="12"/>
       <c r="Y2" s="12"/>
       <c r="Z2" s="12"/>
@@ -1621,9 +1616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9ADA874-5A97-410B-94A2-1FA402DA5E5F}">
   <dimension ref="B1:AA44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1638,30 +1631,30 @@
       </c>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="14" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
       <c r="X2" s="12"/>
       <c r="Y2" s="12"/>
       <c r="Z2" s="12"/>
@@ -2190,30 +2183,30 @@
       </c>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="14" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
       <c r="X13" s="12"/>
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
@@ -2766,30 +2759,30 @@
       </c>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="14" t="s">
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
@@ -3337,14 +3330,14 @@
       </c>
     </row>
     <row r="34" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="I34" s="13"/>
-      <c r="P34" s="15" t="s">
+      <c r="I34" s="14"/>
+      <c r="P34" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Q34" s="15"/>
+      <c r="Q34" s="16"/>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
@@ -3797,9 +3790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A0384F-8489-498D-BBFD-0F17EBEC2346}">
   <dimension ref="B1:AA51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3814,32 +3805,32 @@
       </c>
     </row>
     <row r="2" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
       <c r="Z2" s="12"/>
       <c r="AA2" s="12"/>
     </row>
@@ -4408,32 +4399,32 @@
       </c>
     </row>
     <row r="15" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13" t="s">
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
       <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
     </row>
@@ -5202,32 +5193,32 @@
       </c>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13" t="s">
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
       <c r="Z28" s="12"/>
       <c r="AA28" s="12"/>
     </row>
@@ -5991,14 +5982,14 @@
       <c r="AA38"/>
     </row>
     <row r="40" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H40" s="15" t="s">
+      <c r="H40" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I40" s="15"/>
-      <c r="P40" s="15" t="s">
+      <c r="I40" s="16"/>
+      <c r="P40" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Q40" s="15"/>
+      <c r="Q40" s="16"/>
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
@@ -6493,7 +6484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E63ADC7-CA33-4FCD-8C16-69A362E333DE}">
   <dimension ref="B1:AA52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
@@ -6510,34 +6501,34 @@
       </c>
     </row>
     <row r="2" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
     </row>
     <row r="3" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
@@ -7144,34 +7135,34 @@
       </c>
     </row>
     <row r="15" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13" t="s">
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
     </row>
     <row r="16" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
@@ -7978,34 +7969,34 @@
       </c>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13" t="s">
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="13"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
@@ -8187,7 +8178,7 @@
       <c r="J31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="17" t="s">
+      <c r="K31" s="13" t="s">
         <v>23</v>
       </c>
       <c r="L31" s="2">
@@ -8376,7 +8367,7 @@
       <c r="S33" s="2">
         <v>0</v>
       </c>
-      <c r="T33" s="17" t="s">
+      <c r="T33" s="13" t="s">
         <v>23</v>
       </c>
       <c r="U33" s="2" t="s">
@@ -8807,14 +8798,14 @@
       </c>
     </row>
     <row r="40" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H40" s="15" t="s">
+      <c r="H40" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I40" s="15"/>
-      <c r="P40" s="15" t="s">
+      <c r="I40" s="16"/>
+      <c r="P40" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Q40" s="15"/>
+      <c r="Q40" s="16"/>
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">

--- a/75ALS16x Logic Table.xlsx
+++ b/75ALS16x Logic Table.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E74B61F-C61E-4B4A-ADB8-9F4A385B61A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C8F82E-57E4-40F8-A85A-76325289AD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{B00E8D16-4F0A-47FD-8F8A-0E31DD8D8A4E}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{B00E8D16-4F0A-47FD-8F8A-0E31DD8D8A4E}"/>
   </bookViews>
   <sheets>
     <sheet name="75ALS160-20" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="50">
   <si>
     <t>LINE</t>
   </si>
@@ -176,6 +176,15 @@
   <si>
     <t>COMPLETE TRUTH TABLE</t>
   </si>
+  <si>
+    <t>TRANSMIT HIGH</t>
+  </si>
+  <si>
+    <t>TRANSMIT LOW</t>
+  </si>
+  <si>
+    <t>H?</t>
+  </si>
 </sst>
 </file>
 
@@ -213,7 +222,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,6 +244,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -387,6 +402,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,9 +432,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -445,7 +472,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -551,7 +578,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -693,7 +720,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -703,7 +730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2388DCC6-379A-4513-9A27-91599C1AD9F0}">
   <dimension ref="B1:AA24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1616,7 +1643,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9ADA874-5A97-410B-94A2-1FA402DA5E5F}">
   <dimension ref="B1:AA44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2179,7 +2208,7 @@
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.25">
@@ -2456,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="R17" s="2">
         <v>1</v>
@@ -2554,37 +2583,37 @@
       <c r="C19" s="1">
         <v>4</v>
       </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="2">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="2">
-        <v>1</v>
-      </c>
-      <c r="M19" s="2" t="s">
+      <c r="D19" s="18">
+        <v>0</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="18">
+        <v>1</v>
+      </c>
+      <c r="J19" s="18">
+        <v>1</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="18">
+        <v>1</v>
+      </c>
+      <c r="M19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="19">
         <v>0</v>
       </c>
       <c r="O19" s="2" t="s">
@@ -2594,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>24</v>
@@ -2713,8 +2742,8 @@
       <c r="J21" s="2">
         <v>1</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>24</v>
+      <c r="K21" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="L21" s="2">
         <v>1</v>
@@ -2732,7 +2761,7 @@
         <v>15</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="R21" s="2">
         <v>1</v>
@@ -2755,7 +2784,7 @@
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.25">
@@ -2941,8 +2970,8 @@
       <c r="I27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>23</v>
+      <c r="J27" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -3169,8 +3198,8 @@
       <c r="P30" s="2">
         <v>0</v>
       </c>
-      <c r="Q30" s="2" t="s">
-        <v>23</v>
+      <c r="Q30" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="R30" s="2" t="s">
         <v>23</v>
@@ -3217,8 +3246,8 @@
       <c r="I31" s="2">
         <v>0</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>23</v>
+      <c r="J31" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="K31" s="2">
         <v>0</v>
@@ -3289,8 +3318,8 @@
       <c r="J32" s="2">
         <v>0</v>
       </c>
-      <c r="K32" s="2" t="s">
-        <v>23</v>
+      <c r="K32" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="L32" s="2">
         <v>0</v>
@@ -3307,8 +3336,8 @@
       <c r="P32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q32" s="2" t="s">
-        <v>23</v>
+      <c r="Q32" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="R32" s="2">
         <v>0</v>
@@ -3790,7 +3819,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A0384F-8489-498D-BBFD-0F17EBEC2346}">
   <dimension ref="B1:AA51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4395,7 +4426,7 @@
     </row>
     <row r="14" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="3:27" x14ac:dyDescent="0.25">
@@ -5189,7 +5220,7 @@
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.25">
@@ -6485,7 +6516,7 @@
   <dimension ref="B1:AA52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7131,7 +7162,7 @@
     </row>
     <row r="14" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="3:27" x14ac:dyDescent="0.25">
@@ -7965,7 +7996,7 @@
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.25">
